--- a/Appendix/Book2.xlsx
+++ b/Appendix/Book2.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanaz-rasti/Desktop/Alt-tech-Topic-Model-Selection-/Appendix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51558641-1CFE-1D47-973C-D788C909C446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2D1752-DF9D-C446-A73D-CDF1DA8850C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" xr2:uid="{23E517F3-C58D-7E4E-B85D-1F034CB625E3}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16100" activeTab="2" xr2:uid="{23E517F3-C58D-7E4E-B85D-1F034CB625E3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Computer Science Abstracts " sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Amazon Reviews Corpus" sheetId="4" r:id="rId1"/>
+    <sheet name="Yelp Reviews" sheetId="5" r:id="rId2"/>
+    <sheet name="Computer Science Abstracts " sheetId="1" r:id="rId3"/>
+    <sheet name="Computing Forever I" sheetId="6" r:id="rId4"/>
+    <sheet name="Computing Forever II" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
   <si>
     <t>Corpus</t>
   </si>
@@ -66,20 +69,135 @@
     <t>NTM</t>
   </si>
   <si>
-    <t>Doc_Topic_Similarity</t>
-  </si>
-  <si>
     <t>Computer Science Abstracts</t>
   </si>
   <si>
     <t xml:space="preserve">Computer Science Abstracts  - Average DTS - Average RI - SpC </t>
+  </si>
+  <si>
+    <t>N-gram Ranges</t>
+  </si>
+  <si>
+    <t>(1, 1)</t>
+  </si>
+  <si>
+    <t>(1, 2)</t>
+  </si>
+  <si>
+    <t>(1, 3)</t>
+  </si>
+  <si>
+    <t>(1, 4)</t>
+  </si>
+  <si>
+    <t>(2, 2)</t>
+  </si>
+  <si>
+    <t>(2, 3)</t>
+  </si>
+  <si>
+    <t>(2, 4)</t>
+  </si>
+  <si>
+    <t>(3, 3)</t>
+  </si>
+  <si>
+    <t>(3, 4)</t>
+  </si>
+  <si>
+    <t>(4, 4)</t>
+  </si>
+  <si>
+    <t>CombinedTM</t>
+  </si>
+  <si>
+    <t>ZeroShotTM</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topic number </t>
+  </si>
+  <si>
+    <t>Topic Terms</t>
+  </si>
+  <si>
+    <t>TopDocs</t>
+  </si>
+  <si>
+    <t>DTS</t>
+  </si>
+  <si>
+    <t>QR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['waste money', 'please waste money', 'please waste', 'terrible product waste money', 'product waste money', 'product waste', 'terrible product', 'terrible product waste', 'customer service', 'highly recommend'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc_9: What a waste of money and time!. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc_837: I don't like this Nokia either. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc_356: The only thing that I think could improve is the sound leaks out from the headset. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc_93: The ear buds only play music in one ear. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc_394: I highly recommend these and encourage people to give them a try. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">['battery life', 'motorola razor', 'love battery life', 'motorola razor vi', 'range battery life', 'range battery', 'love battery', 'phone battery life', 'phone battery', 'phone battery life operates'] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc_362: It is light, easy to use, and has very clear reception and transmission. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc_759: Its the best headset I have used. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc_564: Yet Plantronincs continues to use the same flawed charger design. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc_368: Love This Phone. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc_260: Good product - incredible value. </t>
+  </si>
+  <si>
+    <t>Average QR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qualitative analysis of selected topic model on Amazon Reviews corpus with n=2 number of topics. The selected model via DTS model selection algorithm is NMF Topic model with Ngram range = (2, 4). </t>
+  </si>
+  <si>
+    <t>Average DTS, RI and SpC for n = 2, 4 and 8 topics on Amazon Reviews corpus.</t>
+  </si>
+  <si>
+    <t>Result of topic modeling DTS, RI and Spearman Correlation 
+between DTS-RI, on Amazon Reviews Corpus for targeted n=2 topics.</t>
+  </si>
+  <si>
+    <t>Num-Topics</t>
+  </si>
+  <si>
+    <t>Average RI </t>
+  </si>
+  <si>
+    <t>Spearman</t>
+  </si>
+  <si>
+    <t>Yelp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,19 +232,38 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,8 +276,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF80FF93"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -200,11 +343,189 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -221,8 +542,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -240,6 +559,121 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -554,11 +988,850 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12306020-CCBA-2041-9DFD-B25E42CB7103}">
+  <dimension ref="D9:I67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="4:8" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.47</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="16"/>
+      <c r="E12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0.47</v>
+      </c>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="16"/>
+      <c r="E13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0.68</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0.64</v>
+      </c>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="16"/>
+      <c r="E14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="14">
+        <v>0.71</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0.47</v>
+      </c>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="16"/>
+      <c r="E15" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0.47</v>
+      </c>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="16"/>
+      <c r="E16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="14">
+        <v>0.74</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0.53</v>
+      </c>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="16"/>
+      <c r="E17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="14">
+        <v>0.67</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.47</v>
+      </c>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="16"/>
+      <c r="E18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0.47</v>
+      </c>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="16"/>
+      <c r="E19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="14">
+        <v>0.66</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0.44</v>
+      </c>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="18"/>
+      <c r="E20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.66</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0.53</v>
+      </c>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0.62</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0.44</v>
+      </c>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="16"/>
+      <c r="E22" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0.76</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0.47</v>
+      </c>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="16"/>
+      <c r="E23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="14">
+        <v>0.83</v>
+      </c>
+      <c r="G23" s="14">
+        <v>0.47</v>
+      </c>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="16"/>
+      <c r="E24" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0.76</v>
+      </c>
+      <c r="G24" s="14">
+        <v>0.47</v>
+      </c>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="16"/>
+      <c r="E25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="14">
+        <v>0.72</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0.53</v>
+      </c>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="16"/>
+      <c r="E26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0.85</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0.64</v>
+      </c>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="16"/>
+      <c r="E27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="15">
+        <v>0.88</v>
+      </c>
+      <c r="G27" s="15">
+        <v>0.64</v>
+      </c>
+      <c r="H27" s="20"/>
+    </row>
+    <row r="28" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="16"/>
+      <c r="E28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0.76</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0.64</v>
+      </c>
+      <c r="H28" s="20"/>
+    </row>
+    <row r="29" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="16"/>
+      <c r="E29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="14">
+        <v>0.78</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0.53</v>
+      </c>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="18"/>
+      <c r="E30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="14">
+        <v>0.73</v>
+      </c>
+      <c r="G30" s="14">
+        <v>0.53</v>
+      </c>
+      <c r="H30" s="20"/>
+    </row>
+    <row r="31" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0.53</v>
+      </c>
+      <c r="H31" s="20"/>
+    </row>
+    <row r="32" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="18"/>
+      <c r="E32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="14">
+        <v>0.54</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0.47</v>
+      </c>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="37" spans="4:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+    </row>
+    <row r="38" spans="4:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H38" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="28">
+        <v>2</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="H39" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="30">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="26">
+        <v>0.77</v>
+      </c>
+      <c r="H40" s="26">
+        <v>0.54</v>
+      </c>
+      <c r="I40" s="31"/>
+    </row>
+    <row r="41" spans="4:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="27"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="25">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="H41" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="32"/>
+    </row>
+    <row r="42" spans="4:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="27"/>
+      <c r="E42" s="28">
+        <v>4</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="25">
+        <v>0.68</v>
+      </c>
+      <c r="H42" s="25">
+        <v>0.49</v>
+      </c>
+      <c r="I42" s="28">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="25">
+        <v>0.79</v>
+      </c>
+      <c r="H43" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="27"/>
+    </row>
+    <row r="44" spans="4:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="27"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H44" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="29"/>
+    </row>
+    <row r="45" spans="4:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="27"/>
+      <c r="E45" s="28">
+        <v>8</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="25">
+        <v>0.68</v>
+      </c>
+      <c r="H45" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="28">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="25">
+        <v>0.78</v>
+      </c>
+      <c r="H46" s="25">
+        <v>0.51</v>
+      </c>
+      <c r="I46" s="27"/>
+    </row>
+    <row r="47" spans="4:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="25">
+        <v>0.59</v>
+      </c>
+      <c r="H47" s="25">
+        <v>0.52</v>
+      </c>
+      <c r="I47" s="29"/>
+    </row>
+    <row r="54" spans="4:8" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="4:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E55" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+    </row>
+    <row r="56" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="42">
+        <v>0</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="H57" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="41"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="H58" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="41"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="H59" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="41"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="H60" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="43"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="H61" s="14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="42">
+        <v>1</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="H62" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="41"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" s="14">
+        <v>0.88</v>
+      </c>
+      <c r="H63" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="41"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="14">
+        <v>0.83</v>
+      </c>
+      <c r="H64" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="41"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G65" s="14">
+        <v>0.87</v>
+      </c>
+      <c r="H65" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="43"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="G66" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="H66" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="36"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="40">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="E62:E66"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="E45:E47"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="D11:D20"/>
+    <mergeCell ref="H11:H32"/>
+    <mergeCell ref="D21:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D39:D47"/>
+    <mergeCell ref="E39:E41"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58934788-C587-194D-86B6-A7B84AFBA7E5}">
+  <dimension ref="C19:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C19" s="50"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C20" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="50">
+        <v>2</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="50">
+        <v>0.65</v>
+      </c>
+      <c r="G20" s="51">
+        <v>0.48</v>
+      </c>
+      <c r="H20" s="50">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C21" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="50">
+        <v>0.79</v>
+      </c>
+      <c r="E21" s="50">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="50">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E22" s="50">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" s="50">
+        <v>4</v>
+      </c>
+      <c r="D23" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="50">
+        <v>0.66</v>
+      </c>
+      <c r="F23" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="50">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="50">
+        <v>0.76</v>
+      </c>
+      <c r="E24" s="50">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C25" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="50">
+        <v>0.59</v>
+      </c>
+      <c r="E25" s="50">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C26" s="50">
+        <v>8</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="50">
+        <v>0.64</v>
+      </c>
+      <c r="F26" s="50">
+        <v>0.51</v>
+      </c>
+      <c r="G26" s="50">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C27" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="50">
+        <v>0.75</v>
+      </c>
+      <c r="E27" s="50">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C28" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="50">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E28" s="50">
+        <v>0.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664D8E77-82EA-D245-8356-82B8731506D9}">
-  <dimension ref="D8:I18"/>
+  <dimension ref="D8:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="152" zoomScaleNormal="152" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,14 +1840,14 @@
   </cols>
   <sheetData>
     <row r="8" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="4:9" ht="24" x14ac:dyDescent="0.2">
       <c r="D9" s="1" t="s">
@@ -597,10 +1870,10 @@
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6">
         <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -612,13 +1885,13 @@
       <c r="H10" s="2">
         <v>0.65</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <v>-0.32</v>
       </c>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
@@ -628,11 +1901,11 @@
       <c r="H11" s="5">
         <v>0.8</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
@@ -642,11 +1915,11 @@
       <c r="H12" s="2">
         <v>0.67</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D13" s="8"/>
-      <c r="E13" s="8">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
         <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -658,13 +1931,13 @@
       <c r="H13" s="2">
         <v>0.72</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <v>-0.2</v>
       </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="2" t="s">
         <v>7</v>
       </c>
@@ -674,11 +1947,11 @@
       <c r="H14" s="2">
         <v>0.76</v>
       </c>
-      <c r="I14" s="9"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
@@ -688,11 +1961,11 @@
       <c r="H15" s="2">
         <v>0.72</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="7"/>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D16" s="8"/>
-      <c r="E16" s="8">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -704,13 +1977,13 @@
       <c r="H16" s="2">
         <v>0.72</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="9">
         <v>-0.3</v>
       </c>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="3" t="s">
         <v>7</v>
       </c>
@@ -720,11 +1993,11 @@
       <c r="H17" s="3">
         <v>0.76</v>
       </c>
-      <c r="I17" s="12"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="3" t="s">
         <v>8</v>
       </c>
@@ -734,10 +2007,88 @@
       <c r="H18" s="3">
         <v>0.72</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D23" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D24" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="50"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D25" s="52"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D26" s="52"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D27" s="52"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="50"/>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D28" s="52"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D29" s="52"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D30" s="52"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="50"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D31" s="52"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D32" s="52"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="D24:D33"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="I10:I12"/>
     <mergeCell ref="E13:E15"/>
@@ -751,528 +2102,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20883D2-4E75-7744-882B-82A92260B240}">
-  <dimension ref="G8:G109"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBCF79B-A985-C145-90EA-175810DF7872}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29708F4-E0BB-7A47-A632-316C5C904F6F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="8" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G8" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G9" s="7">
-        <v>0.77337964043346197</v>
-      </c>
-    </row>
-    <row r="10" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G10" s="7">
-        <v>0.768462180945784</v>
-      </c>
-    </row>
-    <row r="11" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G11" s="7">
-        <v>0.78499958608221099</v>
-      </c>
-    </row>
-    <row r="12" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G12" s="7">
-        <v>0.78371012693999198</v>
-      </c>
-    </row>
-    <row r="13" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G13" s="7">
-        <v>0.76769036963619297</v>
-      </c>
-    </row>
-    <row r="14" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G14" s="7">
-        <v>0.86040413507345304</v>
-      </c>
-    </row>
-    <row r="15" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G15" s="7">
-        <v>0.87855944203288705</v>
-      </c>
-    </row>
-    <row r="16" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G16" s="7">
-        <v>0.83711612328436003</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="7">
-        <v>0.89798060657148404</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="7">
-        <v>0.89380403382601803</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G19" s="7">
-        <v>0.88081547594239895</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G20" s="7">
-        <v>0.88608866986646895</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G21" s="7">
-        <v>0.90375674097481595</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G22" s="7">
-        <v>0.880193458204659</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G23" s="7">
-        <v>0.89777776725455405</v>
-      </c>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G24" s="7">
-        <v>0.55660610133630595</v>
-      </c>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G25" s="7">
-        <v>0.64510785721417496</v>
-      </c>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G26" s="7">
-        <v>0.710859015546495</v>
-      </c>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G27" s="7">
-        <v>0.632191009120044</v>
-      </c>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G28" s="7">
-        <v>0.64546736977686203</v>
-      </c>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G29" s="7">
-        <v>0.91405948824122096</v>
-      </c>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G30" s="7">
-        <v>0.89137571804277704</v>
-      </c>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G31" s="7">
-        <v>0.87273938698308495</v>
-      </c>
-    </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G32" s="7">
-        <v>0.850650978844122</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G33" s="7">
-        <v>0.89187474374267495</v>
-      </c>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G34" s="7">
-        <v>0.85407826592094105</v>
-      </c>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G35" s="7">
-        <v>0.848101379616791</v>
-      </c>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G36" s="7">
-        <v>0.82455677561716101</v>
-      </c>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G37" s="7">
-        <v>0.83162542249837701</v>
-      </c>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G38" s="7">
-        <v>0.83478224298421699</v>
-      </c>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G39" s="7">
-        <v>0.79352823118230797</v>
-      </c>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G40" s="7">
-        <v>0.89106179898472804</v>
-      </c>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G41" s="7">
-        <v>0.83637762248700798</v>
-      </c>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G42" s="7">
-        <v>0.86154067057834005</v>
-      </c>
-    </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G43" s="7">
-        <v>0.871912440904408</v>
-      </c>
-    </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G44" s="7">
-        <v>0.91520558639595095</v>
-      </c>
-    </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G45" s="7">
-        <v>0.89755997612149396</v>
-      </c>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G46" s="7">
-        <v>0.83027906627072201</v>
-      </c>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G47" s="7">
-        <v>0.859688593402543</v>
-      </c>
-    </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G48" s="7">
-        <v>0.84348211418624897</v>
-      </c>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G49" s="7">
-        <v>0.85966156438118402</v>
-      </c>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G50" s="7">
-        <v>0.87659437266695595</v>
-      </c>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G51" s="7">
-        <v>0.81560861001166096</v>
-      </c>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G52" s="7">
-        <v>0.84050006996673399</v>
-      </c>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G53" s="7">
-        <v>0.80548268872824302</v>
-      </c>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G54" s="7">
-        <v>0.87000683280186697</v>
-      </c>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G55" s="7">
-        <v>0.89435810832122298</v>
-      </c>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G56" s="7">
-        <v>0.91763089204396797</v>
-      </c>
-    </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G57" s="7">
-        <v>0.87483226450030005</v>
-      </c>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G58" s="7">
-        <v>0.86461542500586597</v>
-      </c>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G59" s="7">
-        <v>0.86153717560109</v>
-      </c>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G60" s="7">
-        <v>0.75143222071923099</v>
-      </c>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G61" s="7">
-        <v>0.83994149907482796</v>
-      </c>
-    </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G62" s="7">
-        <v>0.86611578557217705</v>
-      </c>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G63" s="7">
-        <v>0.85357665418953999</v>
-      </c>
-    </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G64" s="7">
-        <v>0.915707995952592</v>
-      </c>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G65" s="7">
-        <v>0.91506331227811</v>
-      </c>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G66" s="7">
-        <v>0.91442253064665102</v>
-      </c>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G67" s="7">
-        <v>0.92029036750727</v>
-      </c>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G68" s="7">
-        <v>0.92161969388298604</v>
-      </c>
-    </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G69" s="7">
-        <v>0.85268921739789805</v>
-      </c>
-    </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G70" s="7">
-        <v>0.78061287825868697</v>
-      </c>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G71" s="7">
-        <v>0.81847425270541796</v>
-      </c>
-    </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G72" s="7">
-        <v>0.85234146980280601</v>
-      </c>
-    </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G73" s="7">
-        <v>0.79049215406138396</v>
-      </c>
-    </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G74" s="7">
-        <v>0.88641297641392303</v>
-      </c>
-    </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G75" s="7">
-        <v>0.88944798818134696</v>
-      </c>
-    </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G76" s="7">
-        <v>0.88615235814285498</v>
-      </c>
-    </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G77" s="7">
-        <v>0.87512642592741796</v>
-      </c>
-    </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G78" s="7">
-        <v>0.83491793134408099</v>
-      </c>
-    </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G79" s="7">
-        <v>0.86120449947218003</v>
-      </c>
-    </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G80" s="7">
-        <v>0.87481831269978905</v>
-      </c>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G81" s="7">
-        <v>0.900151731073634</v>
-      </c>
-    </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G82" s="7">
-        <v>0.86365366886334005</v>
-      </c>
-    </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G83" s="7">
-        <v>0.87692484383399005</v>
-      </c>
-    </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G84" s="7">
-        <v>0.86010725046581404</v>
-      </c>
-    </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G85" s="7">
-        <v>0.87069963956226804</v>
-      </c>
-    </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G86" s="7">
-        <v>0.90304296568430897</v>
-      </c>
-    </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G87" s="7">
-        <v>0.81750498829372398</v>
-      </c>
-    </row>
-    <row r="88" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G88" s="7">
-        <v>0.872336900094004</v>
-      </c>
-    </row>
-    <row r="89" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G89" s="7">
-        <v>0.90616018717235203</v>
-      </c>
-    </row>
-    <row r="90" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G90" s="7">
-        <v>0.86200126528902099</v>
-      </c>
-    </row>
-    <row r="91" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G91" s="7">
-        <v>0.83777637283655904</v>
-      </c>
-    </row>
-    <row r="92" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G92" s="7">
-        <v>0.87696120493343099</v>
-      </c>
-    </row>
-    <row r="93" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G93" s="7">
-        <v>0.84217388325635001</v>
-      </c>
-    </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G94" s="7">
-        <v>0.88497062461485898</v>
-      </c>
-    </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G95" s="7">
-        <v>0.91515553296244201</v>
-      </c>
-    </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G96" s="7">
-        <v>0.89896052697726403</v>
-      </c>
-    </row>
-    <row r="97" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G97" s="7">
-        <v>0.921030414663495</v>
-      </c>
-    </row>
-    <row r="98" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G98" s="7">
-        <v>0.81550699138159799</v>
-      </c>
-    </row>
-    <row r="99" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G99" s="7">
-        <v>0.82778342549075501</v>
-      </c>
-    </row>
-    <row r="100" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G100" s="7">
-        <v>0.748546519220603</v>
-      </c>
-    </row>
-    <row r="101" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G101" s="7">
-        <v>0.79298292220112598</v>
-      </c>
-    </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G102" s="7">
-        <v>0.79827603802228297</v>
-      </c>
-    </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G103" s="7">
-        <v>0.74158640767556805</v>
-      </c>
-    </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G104" s="7">
-        <v>0.82522910625624701</v>
-      </c>
-    </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G105" s="7">
-        <v>0.87195055529082899</v>
-      </c>
-    </row>
-    <row r="106" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G106" s="7">
-        <v>0.86168796752604004</v>
-      </c>
-    </row>
-    <row r="107" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G107" s="7">
-        <v>0.84957429133249696</v>
-      </c>
-    </row>
-    <row r="108" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G108" s="7">
-        <v>0.838696443806768</v>
-      </c>
-    </row>
-    <row r="109" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G109">
-        <f>AVERAGE(G9:G108)</f>
-        <v>0.84562571410109133</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>